--- a/data/trans_camb/P1434-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1434-Habitat-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>1.23052916944467</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.445036518494846</v>
+        <v>4.445036518494849</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.137090940782858</v>
+        <v>-1.149943647923047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.538194463998627</v>
+        <v>-0.5735727496428856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.511087612831378</v>
+        <v>2.459029162286284</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.611628180083825</v>
+        <v>2.531954996418749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.073719904084025</v>
+        <v>3.167672068352152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.453912416689452</v>
+        <v>6.323569224035822</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.4873744147931576</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.760541014166549</v>
+        <v>1.76054101416655</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3589373544105917</v>
+        <v>-0.3892933615871215</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1793343506807991</v>
+        <v>-0.2005422130457611</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6919760979636361</v>
+        <v>0.6461507487065387</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.482690964959693</v>
+        <v>1.451521998981442</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.875195929145674</v>
+        <v>1.860750951039947</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.873444654173646</v>
+        <v>3.867685883124997</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-1.136301692181667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.317970654720124</v>
+        <v>1.317970654720122</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.892174745874298</v>
+        <v>-2.059215392250606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.782837020486899</v>
+        <v>-2.598567201027449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3479606869366871</v>
+        <v>-0.3367388590738772</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.435709215798663</v>
+        <v>1.357340035664786</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2925439372131691</v>
+        <v>0.2499274813184182</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.000966182961821</v>
+        <v>2.983577188753773</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.3187885695049669</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3697556578139641</v>
+        <v>0.3697556578139637</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4360439319591257</v>
+        <v>-0.4569492052646776</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.607168822108369</v>
+        <v>-0.5897937158435447</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08991016263636815</v>
+        <v>-0.07302585318108157</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5495370380437817</v>
+        <v>0.4933050248380956</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1285709241695469</v>
+        <v>0.1031911002992943</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.134906597087391</v>
+        <v>1.098276798813711</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.856026400474832</v>
+        <v>-1.752797134946836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.078139350263868</v>
+        <v>-2.185155028295786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.503163645619659</v>
+        <v>-1.454948495822362</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.361135281479625</v>
+        <v>2.339629897134623</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.608249952635993</v>
+        <v>1.640349842713488</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.141523850690621</v>
+        <v>2.324965641548089</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4268707546759617</v>
+        <v>-0.4106732899823208</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4829334645393333</v>
+        <v>-0.4914911442113333</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3479135703295043</v>
+        <v>-0.3515862064351177</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.034384439563943</v>
+        <v>1.007488819620403</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7269449741900305</v>
+        <v>0.7325221504433463</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9059536987831063</v>
+        <v>0.989118031558666</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>0.4250837070589146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.129707540028699</v>
+        <v>3.129707540028696</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.61706161364922</v>
+        <v>-0.5906284582780191</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.017216103170347</v>
+        <v>-1.155414541121907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.469443092487591</v>
+        <v>1.476408587327549</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.869367369939585</v>
+        <v>2.917369729091415</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.174640379658209</v>
+        <v>2.233872289268048</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.786636236884221</v>
+        <v>4.867710894195642</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.1268779230462958</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.93414728870363</v>
+        <v>0.9341472887036292</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1559254978934785</v>
+        <v>-0.1472611829352441</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2685223412219361</v>
+        <v>-0.288304444690801</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.344207543943885</v>
+        <v>0.3008028140838184</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.105429226129917</v>
+        <v>1.089957932838185</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8357687954551076</v>
+        <v>0.8896067010060817</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.970080070712973</v>
+        <v>1.894277347574509</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4684410168525508</v>
+        <v>-0.4948708548886007</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8733362444391395</v>
+        <v>-0.8247494578955282</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.327735242489719</v>
+        <v>1.373986726385754</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.338214504445362</v>
+        <v>1.337036992743557</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8253476654271511</v>
+        <v>0.8834604915966484</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.094042144815142</v>
+        <v>3.131367177868578</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1261000669191879</v>
+        <v>-0.1326022563873765</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.239701259892541</v>
+        <v>-0.2262832171924074</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3650702308423035</v>
+        <v>0.3665519272361301</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4758803164161775</v>
+        <v>0.4830316264138384</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2894692359474672</v>
+        <v>0.3081765956268483</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.098456939841904</v>
+        <v>1.115936609766203</v>
       </c>
     </row>
     <row r="34">
